--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Col4a1-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H2">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J2">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N2">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P2">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q2">
-        <v>6840.276690308564</v>
+        <v>9486.376876040478</v>
       </c>
       <c r="R2">
-        <v>61562.49021277708</v>
+        <v>85377.3918843643</v>
       </c>
       <c r="S2">
-        <v>0.05164896051149049</v>
+        <v>0.06824770944832527</v>
       </c>
       <c r="T2">
-        <v>0.05164896051149049</v>
+        <v>0.06824770944832527</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H3">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J3">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N3">
         <v>247.930015</v>
       </c>
       <c r="O3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P3">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q3">
-        <v>30752.29202303826</v>
+        <v>34850.92376058934</v>
       </c>
       <c r="R3">
-        <v>276770.6282073443</v>
+        <v>313658.3138453041</v>
       </c>
       <c r="S3">
-        <v>0.232201705902642</v>
+        <v>0.2507275169328079</v>
       </c>
       <c r="T3">
-        <v>0.232201705902642</v>
+        <v>0.2507275169328079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H4">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J4">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N4">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O4">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P4">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q4">
-        <v>33955.27520401219</v>
+        <v>33452.0204446713</v>
       </c>
       <c r="R4">
-        <v>305597.4768361098</v>
+        <v>301068.1840020418</v>
       </c>
       <c r="S4">
-        <v>0.2563865100155336</v>
+        <v>0.2406634062297845</v>
       </c>
       <c r="T4">
-        <v>0.2563865100155336</v>
+        <v>0.2406634062297845</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H5">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J5">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N5">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P5">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q5">
-        <v>5415.730835278398</v>
+        <v>6100.842968883087</v>
       </c>
       <c r="R5">
-        <v>48741.57751750558</v>
+        <v>54907.58671994779</v>
       </c>
       <c r="S5">
-        <v>0.04089262477473516</v>
+        <v>0.04389120986557085</v>
       </c>
       <c r="T5">
-        <v>0.04089262477473516</v>
+        <v>0.04389120986557085</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>372.1085406666666</v>
+        <v>421.7027586666666</v>
       </c>
       <c r="H6">
-        <v>1116.325622</v>
+        <v>1265.108276</v>
       </c>
       <c r="I6">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="J6">
-        <v>0.8095247142929753</v>
+        <v>0.8230205889389596</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N6">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O6">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P6">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q6">
-        <v>30248.12861117036</v>
+        <v>30509.03771829872</v>
       </c>
       <c r="R6">
-        <v>272233.1575005332</v>
+        <v>274581.3394646885</v>
       </c>
       <c r="S6">
-        <v>0.228394913088574</v>
+        <v>0.2194907464624709</v>
       </c>
       <c r="T6">
-        <v>0.2283949130885741</v>
+        <v>0.219490746462471</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>209.114842</v>
       </c>
       <c r="I7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J7">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N7">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P7">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q7">
-        <v>1281.349591141211</v>
+        <v>1568.041438996687</v>
       </c>
       <c r="R7">
-        <v>11532.1463202709</v>
+        <v>14112.37295097019</v>
       </c>
       <c r="S7">
-        <v>0.009675101963058387</v>
+        <v>0.01128093875353674</v>
       </c>
       <c r="T7">
-        <v>0.009675101963058387</v>
+        <v>0.01128093875353674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>209.114842</v>
       </c>
       <c r="I8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J8">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -930,28 +930,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N8">
         <v>247.930015</v>
       </c>
       <c r="O8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P8">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q8">
-        <v>5760.649545975848</v>
+        <v>5760.649545975847</v>
       </c>
       <c r="R8">
         <v>51845.84591378263</v>
       </c>
       <c r="S8">
-        <v>0.04349700668427502</v>
+        <v>0.04144376104647067</v>
       </c>
       <c r="T8">
-        <v>0.04349700668427502</v>
+        <v>0.04144376104647067</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>209.114842</v>
       </c>
       <c r="I9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J9">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N9">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O9">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P9">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q9">
-        <v>6360.645916764176</v>
+        <v>5529.419182985576</v>
       </c>
       <c r="R9">
-        <v>57245.81325087758</v>
+        <v>49764.77264687019</v>
       </c>
       <c r="S9">
-        <v>0.04802740658838854</v>
+        <v>0.03978022365646371</v>
       </c>
       <c r="T9">
-        <v>0.04802740658838855</v>
+        <v>0.03978022365646371</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>209.114842</v>
       </c>
       <c r="I10">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J10">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N10">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P10">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q10">
-        <v>1014.497630095397</v>
+        <v>1008.432904682696</v>
       </c>
       <c r="R10">
-        <v>9130.478670858576</v>
+        <v>9075.896142144264</v>
       </c>
       <c r="S10">
-        <v>0.007660179610868082</v>
+        <v>0.007254954844851313</v>
       </c>
       <c r="T10">
-        <v>0.007660179610868082</v>
+        <v>0.007254954844851313</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>209.114842</v>
       </c>
       <c r="I11">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="J11">
-        <v>0.1516435969830949</v>
+        <v>0.136040387754698</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N11">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O11">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P11">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q11">
-        <v>5666.207521053002</v>
+        <v>5042.961715661149</v>
       </c>
       <c r="R11">
-        <v>50995.86768947702</v>
+        <v>45386.65544095034</v>
       </c>
       <c r="S11">
-        <v>0.04278390213650484</v>
+        <v>0.03628050945337558</v>
       </c>
       <c r="T11">
-        <v>0.04278390213650485</v>
+        <v>0.03628050945337558</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H12">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J12">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N12">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P12">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q12">
-        <v>7.120562760812001</v>
+        <v>24.47859893528967</v>
       </c>
       <c r="R12">
-        <v>64.085064847308</v>
+        <v>220.307390417607</v>
       </c>
       <c r="S12">
-        <v>5.376531995757304E-05</v>
+        <v>0.0001761060444538262</v>
       </c>
       <c r="T12">
-        <v>5.376531995757304E-05</v>
+        <v>0.0001761060444538262</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H13">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J13">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N13">
         <v>247.930015</v>
       </c>
       <c r="O13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P13">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q13">
-        <v>32.01239296344666</v>
+        <v>89.92914749302054</v>
       </c>
       <c r="R13">
-        <v>288.11153667102</v>
+        <v>809.3623274371849</v>
       </c>
       <c r="S13">
-        <v>0.0002417163654198304</v>
+        <v>0.0006469760172126928</v>
       </c>
       <c r="T13">
-        <v>0.0002417163654198304</v>
+        <v>0.0006469760172126928</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H14">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I14">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J14">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N14">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O14">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P14">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q14">
-        <v>35.34662106481333</v>
+        <v>86.31942444837831</v>
       </c>
       <c r="R14">
-        <v>318.11958958332</v>
+        <v>776.8748200354049</v>
       </c>
       <c r="S14">
-        <v>0.0002668921621515296</v>
+        <v>0.0006210066368308233</v>
       </c>
       <c r="T14">
-        <v>0.0002668921621515296</v>
+        <v>0.0006210066368308233</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H15">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I15">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J15">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N15">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P15">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q15">
-        <v>5.637644945401332</v>
+        <v>15.742584355852</v>
       </c>
       <c r="R15">
-        <v>50.73880450861198</v>
+        <v>141.683259202668</v>
       </c>
       <c r="S15">
-        <v>4.25682343486755E-05</v>
+        <v>0.000113256656057753</v>
       </c>
       <c r="T15">
-        <v>4.25682343486755E-05</v>
+        <v>0.000113256656057753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.387356</v>
+        <v>1.088159666666667</v>
       </c>
       <c r="H16">
-        <v>1.162068</v>
+        <v>3.264479</v>
       </c>
       <c r="I16">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="J16">
-        <v>0.0008426956679571844</v>
+        <v>0.002123718167154624</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N16">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O16">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P16">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q16">
-        <v>31.48757103321733</v>
+        <v>78.72536669864778</v>
       </c>
       <c r="R16">
-        <v>283.3881392989559</v>
+        <v>708.5283002878301</v>
       </c>
       <c r="S16">
-        <v>0.0002377535860795759</v>
+        <v>0.0005663728125995287</v>
       </c>
       <c r="T16">
-        <v>0.0002377535860795759</v>
+        <v>0.0005663728125995288</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H17">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J17">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N17">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P17">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q17">
-        <v>313.1843133589317</v>
+        <v>437.2429361819537</v>
       </c>
       <c r="R17">
-        <v>2818.658820230385</v>
+        <v>3935.186425637583</v>
       </c>
       <c r="S17">
-        <v>0.002364764609070813</v>
+        <v>0.003145650784995365</v>
       </c>
       <c r="T17">
-        <v>0.002364764609070813</v>
+        <v>0.003145650784995365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H18">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I18">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J18">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1550,28 +1550,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N18">
         <v>247.930015</v>
       </c>
       <c r="O18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P18">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q18">
-        <v>1408.003783691114</v>
+        <v>1606.337217343807</v>
       </c>
       <c r="R18">
-        <v>12672.03405322002</v>
+        <v>14457.03495609426</v>
       </c>
       <c r="S18">
-        <v>0.0106314313172339</v>
+        <v>0.01155644953999229</v>
       </c>
       <c r="T18">
-        <v>0.0106314313172339</v>
+        <v>0.01155644953999229</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H19">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I19">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J19">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N19">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O19">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P19">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q19">
-        <v>1554.653419904628</v>
+        <v>1541.859429745938</v>
       </c>
       <c r="R19">
-        <v>13991.88077914165</v>
+        <v>13876.73486771344</v>
       </c>
       <c r="S19">
-        <v>0.01173874051139964</v>
+        <v>0.01109257788790093</v>
       </c>
       <c r="T19">
-        <v>0.01173874051139964</v>
+        <v>0.01109257788790093</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H20">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I20">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J20">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N20">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P20">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q20">
-        <v>247.9610138266127</v>
+        <v>281.198030370988</v>
       </c>
       <c r="R20">
-        <v>2231.649124439515</v>
+        <v>2530.782273338892</v>
       </c>
       <c r="S20">
-        <v>0.001872282246954275</v>
+        <v>0.002023019085681816</v>
       </c>
       <c r="T20">
-        <v>0.001872282246954275</v>
+        <v>0.002023019085681816</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>17.03711166666666</v>
+        <v>19.43698366666667</v>
       </c>
       <c r="H21">
-        <v>51.111335</v>
+        <v>58.310951</v>
       </c>
       <c r="I21">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="J21">
-        <v>0.03706435474344739</v>
+        <v>0.03793439197579861</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N21">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O21">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P21">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q21">
-        <v>1384.920496403882</v>
+        <v>1406.212446158141</v>
       </c>
       <c r="R21">
-        <v>12464.28446763494</v>
+        <v>12655.91201542327</v>
       </c>
       <c r="S21">
-        <v>0.01045713605878876</v>
+        <v>0.01011669467722822</v>
       </c>
       <c r="T21">
-        <v>0.01045713605878876</v>
+        <v>0.01011669467722822</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H22">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I22">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J22">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>18.382477</v>
+        <v>22.495411</v>
       </c>
       <c r="N22">
-        <v>55.147431</v>
+        <v>67.486233</v>
       </c>
       <c r="O22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="P22">
-        <v>0.06380158579420245</v>
+        <v>0.08292345339295874</v>
       </c>
       <c r="Q22">
-        <v>7.812957139494001</v>
+        <v>10.153663681426</v>
       </c>
       <c r="R22">
-        <v>70.31661425544601</v>
+        <v>91.382973132834</v>
       </c>
       <c r="S22">
-        <v>5.8993390625181E-05</v>
+        <v>7.304836164755147E-05</v>
       </c>
       <c r="T22">
-        <v>5.8993390625181E-05</v>
+        <v>7.304836164755147E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H23">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I23">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J23">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1860,28 +1860,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>82.64333833333333</v>
+        <v>82.64333833333332</v>
       </c>
       <c r="N23">
         <v>247.930015</v>
       </c>
       <c r="O23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="P23">
-        <v>0.2868370808239535</v>
+        <v>0.3046430676248896</v>
       </c>
       <c r="Q23">
-        <v>35.12523694511</v>
+        <v>37.30239305016332</v>
       </c>
       <c r="R23">
-        <v>316.12713250599</v>
+        <v>335.7215374514699</v>
       </c>
       <c r="S23">
-        <v>0.0002652205543827052</v>
+        <v>0.0002683640884060436</v>
       </c>
       <c r="T23">
-        <v>0.0002652205543827052</v>
+        <v>0.0002683640884060436</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H24">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I24">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J24">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>91.25099666666667</v>
+        <v>79.32606499999999</v>
       </c>
       <c r="N24">
-        <v>273.75299</v>
+        <v>237.978195</v>
       </c>
       <c r="O24">
-        <v>0.3167123936907313</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="P24">
-        <v>0.3167123936907314</v>
+        <v>0.2924148064631633</v>
       </c>
       <c r="Q24">
-        <v>38.78368110526</v>
+        <v>35.80508865478999</v>
       </c>
       <c r="R24">
-        <v>349.05312994734</v>
+        <v>322.24579789311</v>
       </c>
       <c r="S24">
-        <v>0.0002928444132580041</v>
+        <v>0.0002575920521833175</v>
       </c>
       <c r="T24">
-        <v>0.0002928444132580042</v>
+        <v>0.0002575920521833175</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H25">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I25">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J25">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.55416966666666</v>
+        <v>14.467164</v>
       </c>
       <c r="N25">
-        <v>43.66250899999999</v>
+        <v>43.401492</v>
       </c>
       <c r="O25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="P25">
-        <v>0.05051436238169709</v>
+        <v>0.05332941903938943</v>
       </c>
       <c r="Q25">
-        <v>6.185842300066</v>
+        <v>6.529985946024</v>
       </c>
       <c r="R25">
-        <v>55.67258070059399</v>
+        <v>58.76987351421599</v>
       </c>
       <c r="S25">
-        <v>4.670751479089716E-05</v>
+        <v>4.69785872276989E-05</v>
       </c>
       <c r="T25">
-        <v>4.670751479089716E-05</v>
+        <v>4.69785872276989E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.425022</v>
+        <v>0.451366</v>
       </c>
       <c r="H26">
-        <v>1.275066</v>
+        <v>1.354098</v>
       </c>
       <c r="I26">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="J26">
-        <v>0.0009246383125251667</v>
+        <v>0.0008809131633892397</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>81.28845566666666</v>
+        <v>72.34725666666667</v>
       </c>
       <c r="N26">
-        <v>243.865367</v>
+        <v>217.04177</v>
       </c>
       <c r="O26">
-        <v>0.2821345773094156</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="P26">
-        <v>0.2821345773094157</v>
+        <v>0.2666892534795989</v>
       </c>
       <c r="Q26">
-        <v>34.549382004358</v>
+        <v>32.65509185260667</v>
       </c>
       <c r="R26">
-        <v>310.944438039222</v>
+        <v>293.89582667346</v>
       </c>
       <c r="S26">
-        <v>0.0002608724394683793</v>
+        <v>0.0002349300739246282</v>
       </c>
       <c r="T26">
-        <v>0.0002608724394683793</v>
+        <v>0.0002349300739246283</v>
       </c>
     </row>
   </sheetData>
